--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  ABASTOS  HERRADURA  FEBRERO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  ABASTOS  HERRADURA  FEBRERO   2022.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -132,6 +132,9 @@
       </rPr>
       <t xml:space="preserve">        2 0 2 2</t>
     </r>
+  </si>
+  <si>
+    <t>GABRIEL</t>
   </si>
 </sst>
 </file>
@@ -2127,7 +2130,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2221,178 +2224,284 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14">
+        <v>44596</v>
+      </c>
       <c r="B5" s="15">
         <v>130</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="23">
+        <v>15980</v>
+      </c>
+      <c r="F5" s="24">
+        <v>44598</v>
+      </c>
+      <c r="G5" s="25">
+        <v>15980</v>
+      </c>
       <c r="H5" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14">
+        <v>44597</v>
+      </c>
       <c r="B6" s="15">
-        <f t="shared" ref="B6:B17" si="1">B5+1</f>
+        <f t="shared" ref="B6:B36" si="1">B5+1</f>
         <v>131</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="D6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="23">
+        <v>288</v>
+      </c>
+      <c r="F6" s="24">
+        <v>44597</v>
+      </c>
+      <c r="G6" s="25">
+        <v>288</v>
+      </c>
       <c r="H6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="26">
+        <v>44597</v>
+      </c>
       <c r="B7" s="15">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="23">
+        <v>500</v>
+      </c>
+      <c r="F7" s="24">
+        <v>44597</v>
+      </c>
+      <c r="G7" s="25">
+        <v>500</v>
+      </c>
       <c r="H7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14">
+        <v>44600</v>
+      </c>
       <c r="B8" s="15">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="D8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="23">
+        <v>263</v>
+      </c>
+      <c r="F8" s="24">
+        <v>44601</v>
+      </c>
+      <c r="G8" s="25">
+        <v>263</v>
+      </c>
       <c r="H8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14">
+        <v>44600</v>
+      </c>
       <c r="B9" s="15">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="23">
+        <v>3726</v>
+      </c>
+      <c r="F9" s="24">
+        <v>44600</v>
+      </c>
+      <c r="G9" s="25">
+        <v>3726</v>
+      </c>
       <c r="H9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>44600</v>
+      </c>
       <c r="B10" s="15">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2704</v>
+      </c>
+      <c r="F10" s="24">
+        <v>44601</v>
+      </c>
+      <c r="G10" s="25">
+        <v>2704</v>
+      </c>
       <c r="H10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14">
+        <v>44601</v>
+      </c>
       <c r="B11" s="15">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="D11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="23">
+        <v>184</v>
+      </c>
+      <c r="F11" s="24">
+        <v>44601</v>
+      </c>
+      <c r="G11" s="25">
+        <v>184</v>
+      </c>
       <c r="H11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14">
+        <v>44603</v>
+      </c>
       <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="23">
+        <v>18178</v>
+      </c>
+      <c r="F12" s="24">
+        <v>44605</v>
+      </c>
+      <c r="G12" s="25">
+        <v>18178</v>
+      </c>
       <c r="H12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>44603</v>
+      </c>
       <c r="B13" s="15">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="C13" s="30"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="23">
+        <v>78</v>
+      </c>
+      <c r="F13" s="24">
+        <v>44604</v>
+      </c>
+      <c r="G13" s="25">
+        <v>78</v>
+      </c>
       <c r="H13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>44604</v>
+      </c>
       <c r="B14" s="15">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="D14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="23">
+        <v>212</v>
+      </c>
+      <c r="F14" s="24">
+        <v>44604</v>
+      </c>
+      <c r="G14" s="25">
+        <v>212</v>
+      </c>
       <c r="H14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14">
+        <v>44606</v>
+      </c>
       <c r="B15" s="15">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="23">
+        <v>506</v>
+      </c>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
       <c r="H15" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2429,7 +2538,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
       <c r="C18" s="29"/>
       <c r="D18" s="27"/>
       <c r="E18" s="23"/>
@@ -2442,7 +2554,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
       <c r="C19" s="30"/>
       <c r="D19" s="27"/>
       <c r="E19" s="23"/>
@@ -2455,7 +2570,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
       <c r="C20" s="29"/>
       <c r="D20" s="27"/>
       <c r="E20" s="23"/>
@@ -2468,7 +2586,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
       <c r="C21" s="29"/>
       <c r="D21" s="27"/>
       <c r="E21" s="23"/>
@@ -2481,7 +2602,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
       <c r="C22" s="29"/>
       <c r="D22" s="27"/>
       <c r="E22" s="23"/>
@@ -2494,7 +2618,10 @@
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
       <c r="C23" s="29"/>
       <c r="D23" s="27"/>
       <c r="E23" s="23"/>
@@ -2507,7 +2634,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
       <c r="C24" s="29"/>
       <c r="D24" s="27"/>
       <c r="E24" s="23"/>
@@ -2520,7 +2650,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
       <c r="C25" s="29"/>
       <c r="D25" s="27"/>
       <c r="E25" s="23"/>
@@ -2533,7 +2666,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
       <c r="C26" s="29"/>
       <c r="D26" s="27"/>
       <c r="E26" s="23"/>
@@ -2546,7 +2682,10 @@
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
       <c r="C27" s="29"/>
       <c r="D27" s="27"/>
       <c r="E27" s="23"/>
@@ -2559,7 +2698,10 @@
     </row>
     <row r="28" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
       <c r="C28" s="32"/>
       <c r="D28" s="27"/>
       <c r="E28" s="23"/>
@@ -2572,7 +2714,10 @@
     </row>
     <row r="29" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="15">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
       <c r="C29" s="32"/>
       <c r="D29" s="27"/>
       <c r="E29" s="23"/>
@@ -2585,7 +2730,10 @@
     </row>
     <row r="30" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
       <c r="C30" s="32"/>
       <c r="D30" s="27"/>
       <c r="E30" s="23"/>
@@ -2598,7 +2746,10 @@
     </row>
     <row r="31" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
       <c r="C31" s="32"/>
       <c r="D31" s="27"/>
       <c r="E31" s="23"/>
@@ -2611,7 +2762,10 @@
     </row>
     <row r="32" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="15">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
       <c r="C32" s="32"/>
       <c r="D32" s="27"/>
       <c r="E32" s="23"/>
@@ -2624,7 +2778,10 @@
     </row>
     <row r="33" spans="1:8" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="15">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
       <c r="C33" s="32"/>
       <c r="D33" s="27"/>
       <c r="E33" s="23"/>
@@ -2637,7 +2794,10 @@
     </row>
     <row r="34" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
-      <c r="B34" s="34"/>
+      <c r="B34" s="15">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
       <c r="C34" s="32"/>
       <c r="D34" s="27"/>
       <c r="E34" s="23"/>
@@ -2650,7 +2810,10 @@
     </row>
     <row r="35" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
-      <c r="B35" s="34"/>
+      <c r="B35" s="15">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
       <c r="C35" s="32"/>
       <c r="D35" s="27"/>
       <c r="E35" s="23"/>
@@ -2663,7 +2826,10 @@
     </row>
     <row r="36" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
-      <c r="B36" s="34"/>
+      <c r="B36" s="15">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
       <c r="C36" s="32"/>
       <c r="D36" s="27"/>
       <c r="E36" s="23"/>
@@ -2969,16 +3135,16 @@
       <c r="D59" s="2"/>
       <c r="E59" s="49">
         <f>SUM(E4:E58)</f>
-        <v>316</v>
+        <v>42935</v>
       </c>
       <c r="F59" s="49"/>
       <c r="G59" s="49">
         <f>SUM(G4:G58)</f>
-        <v>316</v>
+        <v>42429</v>
       </c>
       <c r="H59" s="50">
         <f>SUM(H4:H58)</f>
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -3022,7 +3188,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="70">
         <f>E59-G59</f>
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="F63" s="71"/>
       <c r="G63" s="72"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  ABASTOS  HERRADURA  FEBRERO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  ABASTOS  HERRADURA  FEBRERO   2022.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
   </si>
 </sst>
 </file>
@@ -2129,8 +2132,8 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2497,219 +2500,345 @@
       <c r="E15" s="23">
         <v>506</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="24">
+        <v>44608</v>
+      </c>
+      <c r="G15" s="25">
+        <v>506</v>
+      </c>
       <c r="H15" s="21">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="14">
+        <v>44607</v>
+      </c>
       <c r="B16" s="15">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="23">
+        <v>3302</v>
+      </c>
+      <c r="F16" s="24">
+        <v>44609</v>
+      </c>
+      <c r="G16" s="25">
+        <v>3302</v>
+      </c>
       <c r="H16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>44607</v>
+      </c>
       <c r="B17" s="15">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="23">
+        <v>3093</v>
+      </c>
+      <c r="F17" s="24">
+        <v>44608</v>
+      </c>
+      <c r="G17" s="25">
+        <v>3093</v>
+      </c>
       <c r="H17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>44608</v>
+      </c>
       <c r="B18" s="15">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="23">
+        <v>184</v>
+      </c>
+      <c r="F18" s="24">
+        <v>44608</v>
+      </c>
+      <c r="G18" s="25">
+        <v>184</v>
+      </c>
       <c r="H18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14">
+        <v>44610</v>
+      </c>
       <c r="B19" s="15">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="23">
+        <v>180</v>
+      </c>
+      <c r="F19" s="24">
+        <v>44610</v>
+      </c>
+      <c r="G19" s="25">
+        <v>180</v>
+      </c>
       <c r="H19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>44610</v>
+      </c>
       <c r="B20" s="15">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
       <c r="C20" s="29"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
+      <c r="D20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="23">
+        <v>17296</v>
+      </c>
+      <c r="F20" s="24">
+        <v>44612</v>
+      </c>
+      <c r="G20" s="25">
+        <v>17296</v>
+      </c>
       <c r="H20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14">
+        <v>44610</v>
+      </c>
       <c r="B21" s="15">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
       <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+      <c r="D21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="23">
+        <v>26</v>
+      </c>
+      <c r="F21" s="24">
+        <v>44610</v>
+      </c>
+      <c r="G21" s="25">
+        <v>26</v>
+      </c>
       <c r="H21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>44610</v>
+      </c>
       <c r="B22" s="15">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
+      <c r="D22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="23">
+        <v>407</v>
+      </c>
+      <c r="F22" s="24">
+        <v>44611</v>
+      </c>
+      <c r="G22" s="25">
+        <v>407</v>
+      </c>
       <c r="H22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>44611</v>
+      </c>
       <c r="B23" s="15">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="C23" s="29"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="23">
+        <v>216</v>
+      </c>
+      <c r="F23" s="24">
+        <v>44614</v>
+      </c>
+      <c r="G23" s="25">
+        <v>216</v>
+      </c>
       <c r="H23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14">
+        <v>44613</v>
+      </c>
       <c r="B24" s="15">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="23">
+        <v>226</v>
+      </c>
+      <c r="F24" s="24">
+        <v>44614</v>
+      </c>
+      <c r="G24" s="25">
+        <v>226</v>
+      </c>
       <c r="H24" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14">
+        <v>44615</v>
+      </c>
       <c r="B25" s="15">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="23">
+        <v>226</v>
+      </c>
+      <c r="F25" s="24">
+        <v>44617</v>
+      </c>
+      <c r="G25" s="25">
+        <v>226</v>
+      </c>
       <c r="H25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="14">
+        <v>44617</v>
+      </c>
       <c r="B26" s="15">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
+      <c r="D26" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="23">
+        <v>117</v>
+      </c>
+      <c r="F26" s="24">
+        <v>44617</v>
+      </c>
+      <c r="G26" s="25">
+        <v>117</v>
+      </c>
       <c r="H26" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14">
+        <v>44618</v>
+      </c>
       <c r="B27" s="15">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
       <c r="C27" s="29"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="23">
+        <v>1406</v>
+      </c>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
+      <c r="A28" s="31">
+        <v>44618</v>
+      </c>
       <c r="B28" s="15">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
       <c r="C28" s="32"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="23">
+        <v>355</v>
+      </c>
       <c r="F28" s="24"/>
       <c r="G28" s="25"/>
       <c r="H28" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3135,16 +3264,16 @@
       <c r="D59" s="2"/>
       <c r="E59" s="49">
         <f>SUM(E4:E58)</f>
-        <v>42935</v>
+        <v>69969</v>
       </c>
       <c r="F59" s="49"/>
       <c r="G59" s="49">
         <f>SUM(G4:G58)</f>
-        <v>42429</v>
+        <v>68208</v>
       </c>
       <c r="H59" s="50">
         <f>SUM(H4:H58)</f>
-        <v>506</v>
+        <v>1761</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -3188,7 +3317,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="70">
         <f>E59-G59</f>
-        <v>506</v>
+        <v>1761</v>
       </c>
       <c r="F63" s="71"/>
       <c r="G63" s="72"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  ABASTOS  HERRADURA  FEBRERO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  ABASTOS  HERRADURA  FEBRERO   2022.xlsx
@@ -2133,7 +2133,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2812,11 +2812,15 @@
       <c r="E27" s="23">
         <v>1406</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
+      <c r="F27" s="24">
+        <v>44619</v>
+      </c>
+      <c r="G27" s="25">
+        <v>1406</v>
+      </c>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
-        <v>1406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2834,11 +2838,15 @@
       <c r="E28" s="23">
         <v>355</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
+      <c r="F28" s="24">
+        <v>44619</v>
+      </c>
+      <c r="G28" s="25">
+        <v>355</v>
+      </c>
       <c r="H28" s="21">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3269,11 +3277,11 @@
       <c r="F59" s="49"/>
       <c r="G59" s="49">
         <f>SUM(G4:G58)</f>
-        <v>68208</v>
+        <v>69969</v>
       </c>
       <c r="H59" s="50">
         <f>SUM(H4:H58)</f>
-        <v>1761</v>
+        <v>0</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -3317,7 +3325,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="70">
         <f>E59-G59</f>
-        <v>1761</v>
+        <v>0</v>
       </c>
       <c r="F63" s="71"/>
       <c r="G63" s="72"/>
